--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>2025-03-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-12-23 17:31:34.0</t>
+  </si>
+  <si>
+    <t>100023</t>
+  </si>
+  <si>
+    <t>1.40.x</t>
+  </si>
+  <si>
+    <t>2025-04-23 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -352,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -773,6 +785,23 @@
         <v>90</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
